--- a/biology/Microbiologie/Peniculistomatidae/Peniculistomatidae.xlsx
+++ b/biology/Microbiologie/Peniculistomatidae/Peniculistomatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Peniculistomatidae sont une famille de Ciliés de la classe des Heterotrichea et de l’ordre des Heterotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Peniculistoma, de penic-, « perruque », et stoma, « bouche », littéralement « bouche à perruque », en référence aux longs cils situés près de la bouche de l'organisme. 
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Morgan décrit ainsi l’espèce type : 
@@ -551,7 +567,7 @@
 Les cils de l'extrémité antérieure sont beaucoup plus longs que ceux couvrant le reste du corps ; presque aussi long que ceux situés au bord du péristome. Lorsque l'animal est au repos, les cils antérieurs sont dressés et rigides, tandis que ceux situés le long de la marge postérieure continuent à se déplacer rapidement. 
 Il existe de nombreuses vacuoles alimentaires, tantôt à la base du cytopharynx, tantôt disposées autour du noyau, tantôt remplissant complètement la moitié postérieure du corps.
 La vacuole contractile se situe à l'extrémité antérieure ; elle est de forme sphérique et se décompose parfois en quelques sphères plus petites. Elle fonctionne à un rythme variable : de quarante à soixante secondes entre la diastole (expansion) et la systole (contraction). 
-Le macronoyau est un grand corps ovale, occupant une position presque centrale ; on observe aussi deux micronoyaux[1]. »
+Le macronoyau est un grand corps ovale, occupant une position presque centrale ; on observe aussi deux micronoyaux. »
 </t>
         </is>
       </c>
@@ -580,10 +596,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Peniculistoma mytili a été trouvée dans le manteau de la moule commune, Mytilus edulis.
-Morgan l'a aussi observée [note 1] dans la cavité du manteau de la moule commune d'eau salée avec l'espèce Ancistrum mytili, autre cilié mais de la famille des Ancistridae[1].
+Morgan l'a aussi observée [note 1] dans la cavité du manteau de la moule commune d'eau salée avec l'espèce Ancistrum mytili, autre cilié mais de la famille des Ancistridae.
 </t>
         </is>
       </c>
@@ -612,13 +630,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 janvier 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 janvier 2023) :
 Echinosociella Berger, 1985
 Kidderia Raabe, 1934 Synonyme : Peniculistoma Jankow., 1964
 Mytilophilus Antipa &amp; Dolan, 1985
-Peniculistoma Jankowski, 1964[3] genre type Synonymes : Kidderia Raabe, 1934 ; Morgania Kahl, 1934
+Peniculistoma Jankowski, 1964 genre type Synonymes : Kidderia Raabe, 1934 ; Morgania Kahl, 1934
 Espèce type : Conchophthirus mytili Morgan, 1925</t>
         </is>
       </c>
@@ -647,9 +667,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Peniculistomatidae Fenchel, 1965[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Peniculistomatidae Fenchel, 1965.
 </t>
         </is>
       </c>
